--- a/data/VGPs_NAM/2.xlsx
+++ b/data/VGPs_NAM/2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>Study level data</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Michoacan Guanajuato volcanic ﬁeld</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
@@ -191,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -211,6 +208,9 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
     </font>
     <font/>
     <font>
@@ -245,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -272,17 +272,20 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -650,12 +653,8 @@
       <c r="K3" s="9">
         <v>33.0</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="8">
         <v>8.5</v>
       </c>
@@ -669,26 +668,26 @@
         <v>0.6</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T3" s="8">
         <v>5.0</v>
       </c>
       <c r="U3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="W3" s="8"/>
-      <c r="X3" s="11"/>
+      <c r="X3" s="12"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
@@ -722,7 +721,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -762,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -774,13 +773,13 @@
         <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>11</v>
@@ -828,28 +827,28 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>35</v>
+      <c r="A7" s="13" t="s">
+        <v>34</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="13">
         <v>19.4161944444</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="13">
         <v>-102.3048611111</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>8.0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
         <v>353.5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="13">
         <v>43.5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <v>199.0</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <v>3.9</v>
       </c>
       <c r="I7" s="2"/>
@@ -858,27 +857,27 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="13">
+      <c r="O7" s="14">
         <v>0.209</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="14">
         <v>0.168</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="14">
         <v>0.25</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="2"/>
+      <c r="U7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>36</v>
+      <c r="V7" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -888,28 +887,28 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>37</v>
+      <c r="A8" s="13" t="s">
+        <v>36</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>19.3743611111</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>-102.0910277778</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <v>8.0</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="13">
         <v>339.9</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>60.9</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <v>242.0</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>3.6</v>
       </c>
       <c r="I8" s="2"/>
@@ -918,27 +917,27 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="13">
+      <c r="O8" s="14">
         <v>0.429</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="14">
         <v>0.365</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="14">
         <v>0.493</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="T8" s="2"/>
+      <c r="U8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>36</v>
+      <c r="V8" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -948,28 +947,28 @@
       <c r="AB8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
-        <v>38</v>
+      <c r="A9" s="13" t="s">
+        <v>37</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="13">
         <v>19.4257222222</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>-102.4355277778</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>7.0</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>17.9</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>58.6</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <v>41.0</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="13">
         <v>9.6</v>
       </c>
       <c r="I9" s="2"/>
@@ -978,27 +977,27 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="13">
+      <c r="O9" s="14">
         <v>0.256</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="14">
         <v>0.238</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="14">
         <v>0.274</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="T9" s="2"/>
+      <c r="U9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>36</v>
+      <c r="V9" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -1008,28 +1007,28 @@
       <c r="AB9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="s">
-        <v>39</v>
+      <c r="A10" s="13" t="s">
+        <v>38</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="13">
         <v>19.308888889</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>-102.5395833333</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>6.0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="13">
         <v>348.6</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="13">
         <v>28.1</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <v>115.0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="13">
         <v>6.3</v>
       </c>
       <c r="I10" s="2"/>
@@ -1038,27 +1037,27 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="13">
+      <c r="O10" s="14">
         <v>0.373</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="14">
         <v>0.312</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="14">
         <v>0.434</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="T10" s="2"/>
+      <c r="U10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>36</v>
+      <c r="V10" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -1068,8 +1067,8 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>40</v>
+      <c r="A11" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="2">
         <f>19+15/60+42.7/3600</f>
@@ -1079,19 +1078,19 @@
         <f>-(102+33/60+50.6/3600)</f>
         <v>-102.5640556</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <v>8.0</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <v>2.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="13">
         <v>27.7</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="13">
         <v>359.0</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="13">
         <v>2.9</v>
       </c>
       <c r="I11" s="2"/>
@@ -1100,27 +1099,27 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="13">
+      <c r="O11" s="14">
         <v>0.612</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="14">
         <v>0.571</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="13">
         <v>653.0</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="T11" s="2"/>
+      <c r="U11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>36</v>
+      <c r="V11" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -1130,10 +1129,10 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>41</v>
+      <c r="A12" s="13" t="s">
+        <v>40</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="13">
         <f>19+16/60+5.5/3600</f>
         <v>19.26819444</v>
       </c>
@@ -1141,19 +1140,19 @@
         <f>-(102+34/60+8.44/3600)</f>
         <v>-102.5690111</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>8.0</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="13">
         <v>352.7</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="13">
         <v>31.3</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="13">
         <v>39.0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="13">
         <v>9.2</v>
       </c>
       <c r="I12" s="2"/>
@@ -1162,27 +1161,27 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="13">
+      <c r="O12" s="14">
         <v>0.612</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="14">
         <v>0.571</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="13">
         <v>653.0</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="T12" s="2"/>
+      <c r="U12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>36</v>
+      <c r="V12" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1192,8 +1191,8 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>42</v>
+      <c r="A13" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="B13" s="2">
         <f>19+9/60+52.4/3600</f>
@@ -1203,19 +1202,19 @@
         <f>-(102+12/60+56.7/3600)</f>
         <v>-102.21575</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="13">
         <v>7.0</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="13">
         <v>1.2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="13">
         <v>32.8</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="13">
         <v>69.0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="13">
         <v>7.3</v>
       </c>
       <c r="I13" s="2"/>
@@ -1224,27 +1223,27 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="13">
+      <c r="O13" s="14">
         <v>0.82</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="14">
         <v>0.58</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="13">
         <v>106.0</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="T13" s="2"/>
+      <c r="U13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>36</v>
+      <c r="V13" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -1254,8 +1253,8 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>43</v>
+      <c r="A14" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="B14" s="2">
         <f>19+36.9/3600</f>
@@ -1265,19 +1264,19 @@
         <f>-(102+4/60+3.5/3600)</f>
         <v>-102.0676389</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>7.0</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>349.3</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="13">
         <v>43.6</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>189.0</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="13">
         <v>4.3</v>
       </c>
       <c r="I14" s="2"/>
@@ -1286,27 +1285,27 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="13">
+      <c r="O14" s="14">
         <v>0.163</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="14">
         <v>0.126</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="13">
         <v>200.0</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="R14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="12" t="s">
+      <c r="T14" s="2"/>
+      <c r="U14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>36</v>
+      <c r="V14" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
